--- a/ListaAlumnosDia/FUNDAMENTOS DE PROGRAMACION27122021.xlsx
+++ b/ListaAlumnosDia/FUNDAMENTOS DE PROGRAMACION27122021.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R427b622f909441b1"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R6ff8d978d70d433e"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>ASISTENCIA</x:t>
   </x:si>
@@ -29,28 +29,82 @@
     <x:t>True</x:t>
   </x:si>
   <x:si>
+    <x:t>114136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALMIRON-GONZALES-JUAN RAISER</x:t>
+  </x:si>
+  <x:si>
     <x:t>192664</x:t>
   </x:si>
   <x:si>
     <x:t>APARICIO-CASTILLA-BRAYAN GUSTAVO</x:t>
   </x:si>
   <x:si>
-    <x:t>194916</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BACILIO-HUAMAN-JEAN MARCO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>193027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BLANCO-MOZO-CARMEN GUADALUPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CCAHUANTICO-MENDOZA-JULIO CESAR</x:t>
+    <x:t>192997</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARCE-QUISPE-RUTH MILAGROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUCAPIÑA-SUVIZARRETA-EDWAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAHUATA-LAVILLA-YOLMY MILAGROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>164236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CARBAJAL-LAURA-KOSMAR HUGO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CARDENAS-HUAMAN-FABRICIO YARED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140984</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CCAPATINTA-QQUECCAÑO-DENNIS MOISES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CCONCHO-CASTELLANOS-MIGUEL ANGEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184645</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CCOTO-MACHACA-EDWIN BRAYAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAMPI-PUMA-WILLIAM RUIZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHIRINOS-VILCA-YERSON JOAB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHOQUELUQUE-GARCIA-ALEJANDRO MIGUEL</x:t>
   </x:si>
   <x:si>
     <x:t>193832</x:t>
@@ -59,124 +113,124 @@
     <x:t>CORTEZ-CCAHUANTICO-PAOLA ANDREA</x:t>
   </x:si>
   <x:si>
-    <x:t>193110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FIGUEROA-RODRIGUEZ-ASTRID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194918</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GAMARRA-FLORES-DAYHANA LUCERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194919</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUAICOCHEA-CARDENAS-WILBER EMANUEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUALLPA-MONTALVO-RALEXS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HUAMAN-JAIMES-NICANOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MALDONADO-CHALCO-CRISTIAN DANIEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAMANI-MEZA-JOHANA MARIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184651</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAMANI-TAIRO-ROY MARVIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAR-GIBAJA-RENATO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MELENDRES-PEREZ-CRISTINA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MUNIVE-SALAS-CIRO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194525</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAREDES-CURASCO-ARELI SHALON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150404</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QUEKQAÑO-QUISPE-CAYO ABEL</x:t>
+    <x:t>120008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUETO-SANCHEZ-CARLA PALOMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CURO-MAMANI-ALEX YTALO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUSI-QUISPE-YANET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192665</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FERNANDEZ-MANDURA-ROYER FUNACOSHI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FERRO-ALVAREZ-JUSTINO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GIFONE-VILLASANTE-EDUARDO JUAREIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUAMAN-LONCONI-MARCO ANTONIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MACCARCCO-QUISPE-KAROL GIANELLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAMANI-HUAMAN-KALEB GEDEON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184802</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAMANI-LAROTA-PAUL DAVID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MELENDEZ-MENDIGURE-EDWARD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MERCADO-HUAYCHO-ADELMECIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182921</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOLLINEDO-PEÑA-ALVARO SEBASTIAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174913</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NAOLA-PUMA-EDWARD BRAYAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PANDO-MUÑOZ-ROSWELL JAIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141671</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAREDES-DENOS-VICTOR ANIVAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191873</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUMA-HUAMANI-GLINA DE LA FLOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182928</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUMA-SOTOMAYOR-RICHARD MIHAYLOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUMACAHUA-APAZA-LEONARDO CHEPPER</x:t>
   </x:si>
   <x:si>
     <x:t>160332</x:t>
   </x:si>
   <x:si>
     <x:t>QUISPE-JIMENEZ-MIGUEL ANGEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAMOS-DELGADO-SAMIRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RODRIGUEZ-CASAS-MARJORIE REBECCA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194921</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAMATA-PUMAHUALCCA-CRISTHIAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194529</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TORRES-MAMANI-GERSON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163813</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VIZCARRA-VARGAS-MARCELO ANGELO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZEVALLOS-VIDAL-NYCOLL TATIANA</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -507,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:D27"/>
+  <x:dimension ref="A1:D36"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -806,6 +860,105 @@
       <x:c r="A27" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="B27" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C27" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B28" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C28" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B29" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C29" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B30" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C30" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B31" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C31" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B32" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C32" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B33" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C33" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B34" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C34" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B35" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C35" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" t="s">
+        <x:v>4</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
 </x:worksheet>
